--- a/src/output_test/test_parser/contracheque-tjrj-2018-01.xlsx
+++ b/src/output_test/test_parser/contracheque-tjrj-2018-01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Tribunal</t>
   </si>
@@ -31,6 +31,12 @@
     <t xml:space="preserve">Mês/Ano Ref.</t>
   </si>
   <si>
+    <t xml:space="preserve">Cargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lotação</t>
+  </si>
+  <si>
     <t xml:space="preserve">Subsídio (R$)</t>
   </si>
   <si>
@@ -77,6 +83,12 @@
   </si>
   <si>
     <t xml:space="preserve">01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEMBARGADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIBUNAL DE JUSTICA 8 CAMARA CIVEL - 1</t>
   </si>
 </sst>
 </file>
@@ -337,28 +349,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1048576"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -368,13 +383,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -409,58 +424,179 @@
       </c>
       <c r="P1" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5" t="n">
         <v>30471.11</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="G2" s="5" t="n">
         <v>4892.68</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>6202</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="I2" s="5" t="n">
         <v>10340.29</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="J2" s="6" t="n">
         <v>51906.08</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="K2" s="5" t="n">
         <v>4342.92</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>7609.24</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>2735.4</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="N2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="O2" s="6" t="n">
         <v>14687.56</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="P2" s="6" t="n">
         <v>37218.52</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="Q2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="R2" s="5" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="1047130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1801,8 +1937,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
